--- a/SpeciesCharacteristics.xlsx
+++ b/SpeciesCharacteristics.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m_ich\OneDrive - uc.cl\colaboraciones\NExtR package exercise\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiasimon/Documents/Chile-Networks-Workshop/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CE10A7-AD6E-4645-9118-B708D22B0334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="11670"/>
+    <workbookView xWindow="10480" yWindow="500" windowWidth="18320" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Chilean Rocky Shore Intertidal " sheetId="1" r:id="rId1"/>
+    <sheet name="Lab Chilean Intertidal" sheetId="2" r:id="rId1"/>
+    <sheet name="Original Chilean Intertidal " sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="174">
   <si>
     <t>Matrix code</t>
   </si>
@@ -495,12 +497,63 @@
   </si>
   <si>
     <t>Harvested species</t>
+  </si>
+  <si>
+    <t>Plankton</t>
+  </si>
+  <si>
+    <t>Primary Producer</t>
+  </si>
+  <si>
+    <t>Traits</t>
+  </si>
+  <si>
+    <t>Chitons</t>
+  </si>
+  <si>
+    <t>Fissurellidos</t>
+  </si>
+  <si>
+    <t>Scurrias</t>
+  </si>
+  <si>
+    <t>Acanthocyclus</t>
+  </si>
+  <si>
+    <t>Acantochyclus</t>
+  </si>
+  <si>
+    <t>Barnacle</t>
+  </si>
+  <si>
+    <t>Bivalve</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>BodyMass</t>
+  </si>
+  <si>
+    <t>Motility</t>
+  </si>
+  <si>
+    <t>Subphyllum</t>
+  </si>
+  <si>
+    <t>Cluster (Kefi, 2017)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -535,10 +588,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -818,22 +872,3568 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7481D50-B619-5542-BB6A-91D0275803A0}">
+  <dimension ref="A1:K108"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="143" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="22.33203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="6" width="12.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="3"/>
+    <col min="9" max="9" width="11.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J2" s="1">
+        <v>8</v>
+      </c>
+      <c r="K2" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J3" s="1">
+        <v>6.01</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J4" s="1">
+        <v>6.65</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J5" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K5" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="K6" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J7" s="1">
+        <v>8.23</v>
+      </c>
+      <c r="K7" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J8" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K8" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="K9" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="K10" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J11" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J12" s="1">
+        <v>6</v>
+      </c>
+      <c r="K12" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J13" s="1">
+        <v>49.03</v>
+      </c>
+      <c r="K13" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J14" s="1">
+        <v>15.2</v>
+      </c>
+      <c r="K14" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J15" s="1">
+        <v>18</v>
+      </c>
+      <c r="K15" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J16" s="1">
+        <v>16.45</v>
+      </c>
+      <c r="K16" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J17" s="1">
+        <v>11</v>
+      </c>
+      <c r="K17" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J18" s="1">
+        <v>15</v>
+      </c>
+      <c r="K18" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J19" s="1">
+        <v>15</v>
+      </c>
+      <c r="K19" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J20" s="1">
+        <v>173.46</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="K21" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J22" s="1">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="K22" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K23" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1.27</v>
+      </c>
+      <c r="K24" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="K25" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1.84</v>
+      </c>
+      <c r="K26" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J27" s="1">
+        <v>2.97</v>
+      </c>
+      <c r="K27" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1.8000000000000002E-2</v>
+      </c>
+      <c r="K28" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J29" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="K29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1</v>
+      </c>
+      <c r="K30" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J31" s="1">
+        <v>6.14</v>
+      </c>
+      <c r="K31" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J32" s="1">
+        <v>6.14</v>
+      </c>
+      <c r="K32" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J33" s="1">
+        <v>6.14</v>
+      </c>
+      <c r="K33" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J34" s="1">
+        <v>4</v>
+      </c>
+      <c r="K34" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J35" s="1">
+        <v>5.65</v>
+      </c>
+      <c r="K35" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J36" s="1">
+        <v>10</v>
+      </c>
+      <c r="K36" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H37" s="3">
+        <v>1</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="K37" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="K38" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J39" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="K39" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="K40" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="K41" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J42" s="1">
+        <v>12</v>
+      </c>
+      <c r="K42" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J43" s="1">
+        <v>1.87</v>
+      </c>
+      <c r="K43" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J44" s="1">
+        <v>1.26</v>
+      </c>
+      <c r="K44" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J45" s="1">
+        <v>5.88</v>
+      </c>
+      <c r="K45" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="K46" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J47" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="K47" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="K48" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K49" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K50" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J51" s="1">
+        <v>1.37</v>
+      </c>
+      <c r="K51" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H52" s="3">
+        <v>1</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J52" s="1">
+        <v>10</v>
+      </c>
+      <c r="K52" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J53" s="1">
+        <v>1</v>
+      </c>
+      <c r="K53" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J54" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="K54" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H55" s="3">
+        <v>1</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J55" s="1">
+        <v>3.92</v>
+      </c>
+      <c r="K55" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J56" s="1">
+        <v>3</v>
+      </c>
+      <c r="K56" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J57" s="1">
+        <v>7.88</v>
+      </c>
+      <c r="K57" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J58" s="1">
+        <v>10.31</v>
+      </c>
+      <c r="K58" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J59" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="K59" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J60" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="K60" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J61" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K61" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J62" s="1">
+        <v>11</v>
+      </c>
+      <c r="K62" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J63" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="K63" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J64" s="1">
+        <v>3.01</v>
+      </c>
+      <c r="K64" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H65" s="3">
+        <v>1</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J65" s="1">
+        <v>15</v>
+      </c>
+      <c r="K65" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J66" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="K66" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H67" s="3">
+        <v>1</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J67" s="1">
+        <v>3.86</v>
+      </c>
+      <c r="K67" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J68" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K68" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J69" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="K69" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J70" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="K70" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J71" s="1">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="K71" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J72" s="1">
+        <v>10</v>
+      </c>
+      <c r="K72" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J73" s="1">
+        <v>2.52</v>
+      </c>
+      <c r="K73" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J74" s="1">
+        <v>2</v>
+      </c>
+      <c r="K74" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J75" s="1">
+        <v>5</v>
+      </c>
+      <c r="K75" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J76" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="K76" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J77" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="K77" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J78" s="1">
+        <v>11.91</v>
+      </c>
+      <c r="K78" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J79" s="1">
+        <v>5</v>
+      </c>
+      <c r="K79" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J80" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="K80" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H81" s="3">
+        <v>1</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J81" s="1">
+        <v>1.21</v>
+      </c>
+      <c r="K81" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J82" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="K82" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H83" s="3">
+        <v>1</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J83" s="1">
+        <v>2.91</v>
+      </c>
+      <c r="K83" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J84" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="K84" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J85" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="K85" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J86" s="1">
+        <v>2</v>
+      </c>
+      <c r="K86" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J87" s="1">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="K87" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H88" s="3">
+        <v>1</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J88" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="K88" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" s="3">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J89" s="1">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="K89" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J90" s="1">
+        <v>3</v>
+      </c>
+      <c r="K90" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J91" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="K91" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J92" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="K92" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J93" s="1">
+        <v>3.33</v>
+      </c>
+      <c r="K93" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H94" s="3">
+        <v>1</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J94" s="1">
+        <v>2.33</v>
+      </c>
+      <c r="K94" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J95" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="K95" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J96" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K96" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J97" s="1">
+        <v>500</v>
+      </c>
+      <c r="K97" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J98" s="1">
+        <v>280</v>
+      </c>
+      <c r="K98" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J99" s="1">
+        <v>1.29E-2</v>
+      </c>
+      <c r="K99" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J100" s="1">
+        <v>6.8000000000000005E-3</v>
+      </c>
+      <c r="K100" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J101" s="1">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="K101" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J102" s="1">
+        <v>2</v>
+      </c>
+      <c r="K102" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J103" s="1">
+        <v>2</v>
+      </c>
+      <c r="K103" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>103</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J104" s="1">
+        <v>2</v>
+      </c>
+      <c r="K104" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A105" s="3">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J105" s="1">
+        <v>2</v>
+      </c>
+      <c r="K105" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A106" s="3">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J106" s="1">
+        <v>2</v>
+      </c>
+      <c r="K106" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A107" s="3">
+        <v>106</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J107" s="1">
+        <v>1</v>
+      </c>
+      <c r="K107" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A108" s="3">
+        <v>107</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H109">
+    <sortCondition ref="A2:A109"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.36328125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="10.90625" style="1"/>
-    <col min="5" max="5" width="12.54296875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6328125" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="12.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -856,7 +4456,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -879,7 +4479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -899,7 +4499,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -919,7 +4519,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -942,7 +4542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -962,7 +4562,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -982,7 +4582,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1005,7 +4605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1025,7 +4625,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1045,7 +4645,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1068,7 +4668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1088,7 +4688,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1111,7 +4711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1134,7 +4734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1157,7 +4757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1180,7 +4780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1203,7 +4803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1226,7 +4826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1249,7 +4849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1269,7 +4869,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1289,7 +4889,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1309,7 +4909,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1329,7 +4929,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1352,7 +4952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1372,7 +4972,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1392,7 +4992,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1412,7 +5012,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1432,7 +5032,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1452,7 +5052,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1475,7 +5075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1495,7 +5095,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1515,7 +5115,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1535,7 +5135,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1555,7 +5155,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1575,7 +5175,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1595,7 +5195,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1618,7 +5218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1638,7 +5238,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1658,7 +5258,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1678,7 +5278,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1698,7 +5298,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1718,7 +5318,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1738,7 +5338,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1758,7 +5358,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1778,7 +5378,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1798,7 +5398,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1818,7 +5418,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1838,7 +5438,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1858,7 +5458,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1878,7 +5478,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1898,7 +5498,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1921,7 +5521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1941,7 +5541,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1961,7 +5561,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1984,7 +5584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2004,7 +5604,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2024,7 +5624,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2044,7 +5644,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2064,7 +5664,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2084,7 +5684,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2104,7 +5704,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2124,7 +5724,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2144,7 +5744,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2164,7 +5764,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2187,7 +5787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2207,7 +5807,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2230,7 +5830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2250,7 +5850,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2270,7 +5870,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2290,7 +5890,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2310,7 +5910,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2330,7 +5930,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2350,7 +5950,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2370,7 +5970,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2390,7 +5990,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2410,7 +6010,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2430,7 +6030,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2450,7 +6050,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2470,7 +6070,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2490,7 +6090,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2513,7 +6113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2533,7 +6133,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2556,7 +6156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2576,7 +6176,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2596,7 +6196,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2616,7 +6216,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2636,7 +6236,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2659,7 +6259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2679,7 +6279,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2699,7 +6299,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2719,7 +6319,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2739,7 +6339,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2759,7 +6359,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2782,7 +6382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2802,7 +6402,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2816,7 +6416,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2836,7 +6436,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2856,7 +6456,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2876,7 +6476,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2896,7 +6496,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2916,11 +6516,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C102" s="1" t="s">
@@ -2936,11 +6536,11 @@
         <v>150</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="1" t="s">
         <v>144</v>
       </c>
       <c r="C103" s="1" t="s">
@@ -2956,11 +6556,11 @@
         <v>150</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="1" t="s">
         <v>145</v>
       </c>
       <c r="C104" s="1" t="s">
@@ -2976,11 +6576,11 @@
         <v>150</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="1" t="s">
         <v>146</v>
       </c>
       <c r="C105" s="1" t="s">
@@ -2996,11 +6596,11 @@
         <v>150</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="1" t="s">
         <v>147</v>
       </c>
       <c r="C106" s="1" t="s">
@@ -3016,11 +6616,11 @@
         <v>150</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="1" t="s">
         <v>148</v>
       </c>
       <c r="C107" s="1" t="s">
@@ -3036,7 +6636,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
